--- a/import.xlsx
+++ b/import.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
-    <t>vishal143.niit@gmail.com</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Sagar Singh</t>
   </si>
   <si>
-    <t>Vishal Gupta</t>
-  </si>
-  <si>
     <t>sagar@gmail.com</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>Email_address</t>
+  </si>
+  <si>
+    <t>vishal@gmail.com</t>
+  </si>
+  <si>
+    <t>Unknown Tech</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,59 +496,59 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>12345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2">
-        <v>713342</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>123456</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
       <c r="F3">
         <v>713456</v>
@@ -556,19 +556,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>12452</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
       <c r="F4">
         <v>7854788</v>
@@ -576,19 +576,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>741258963</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
       </c>
       <c r="F5">
         <v>7854796</v>
@@ -596,19 +596,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>74859654</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
       </c>
       <c r="F6">
         <v>965847</v>
@@ -616,19 +616,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>3256985</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
       </c>
       <c r="F7">
         <v>741258</v>
@@ -636,19 +636,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>7412587</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
       </c>
       <c r="F8">
         <v>746985</v>
@@ -656,19 +656,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>78541269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
       </c>
       <c r="F9">
         <v>6985</v>
@@ -676,19 +676,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>5214567</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>56859</v>
@@ -696,19 +696,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>5844785478</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>700091</v>
@@ -716,19 +716,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>7854569652</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12">
         <v>700091</v>
@@ -736,19 +736,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>876595</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>90094</v>
@@ -756,19 +756,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>1234568</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>700091</v>
@@ -776,19 +776,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>98565854</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>700091</v>
